--- a/weo_data_dirty_strings.xlsx
+++ b/weo_data_dirty_strings.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/m_wiemers_lse_ac_uk/Documents/DSL/Trainings/Stata/Stata_practicals/data_cleaning/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_1147C4778C54FEED7BABC744E3012D16E106D4A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7825B8B8-47D2-49ED-AF57-0FC67FA93774}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1728">
   <si>
     <t>Country</t>
   </si>
@@ -5202,7 +5209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -5235,15 +5242,325 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:AK34"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5356,7 +5673,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5469,7 +5786,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5582,7 +5899,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5695,6108 +6012,6787 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="O5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Q5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="R5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="S5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="T5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="U5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="V5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="W5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="X5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="Y5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="Z5" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="AA5" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="AB5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="AC5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="AD5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="AE5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="AF5" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="AG5" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="AH5" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="AI5" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="AJ5" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="AK5" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I6" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="K6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="O6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="R6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="S6" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="T6" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="U6" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="V6" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="W6" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="X6" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="Y6" t="s">
-        <v>1007</v>
+        <v>1024</v>
       </c>
       <c r="Z6" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="AA6" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="AB6" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="AC6" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="AD6" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="AE6" t="s">
-        <v>512</v>
+        <v>1347</v>
       </c>
       <c r="AF6" t="s">
-        <v>1402</v>
+        <v>598</v>
       </c>
       <c r="AG6" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="AH6" t="s">
-        <v>402</v>
+        <v>1513</v>
       </c>
       <c r="AI6" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="AJ6" t="s">
-        <v>437</v>
+        <v>1619</v>
       </c>
       <c r="AK6" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M7" t="s">
-        <v>180</v>
+        <v>427</v>
       </c>
       <c r="N7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="O7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="R7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="S7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="T7" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="U7" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="V7" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="W7" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="X7" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="Z7" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="AA7" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="AB7" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="AC7" t="s">
-        <v>1241</v>
+        <v>176</v>
       </c>
       <c r="AD7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="AE7" t="s">
-        <v>621</v>
+        <v>1348</v>
       </c>
       <c r="AF7" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="AG7" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="AH7" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="AI7" t="s">
-        <v>1569</v>
+        <v>1192</v>
       </c>
       <c r="AJ7" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="AK7" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O8" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P8" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="Q8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="R8" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="S8" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="T8" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="U8" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="V8" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="W8" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="X8" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="Y8" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="Z8" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="AA8" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="AB8" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="AC8" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="AD8" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="AE8" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="AF8" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="AG8" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="AH8" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="AI8" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="AK8" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="J9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="L9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="Q9" t="s">
-        <v>559</v>
+        <v>610</v>
       </c>
       <c r="R9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="S9" t="s">
-        <v>107</v>
+        <v>710</v>
       </c>
       <c r="T9" t="s">
-        <v>308</v>
+        <v>760</v>
       </c>
       <c r="U9" t="s">
-        <v>308</v>
+        <v>811</v>
       </c>
       <c r="V9" t="s">
-        <v>224</v>
+        <v>861</v>
       </c>
       <c r="W9" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="X9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="Y9" t="s">
-        <v>1029</v>
+        <v>1007</v>
       </c>
       <c r="Z9" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="AA9" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="AB9" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="AC9" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="AD9" t="s">
-        <v>975</v>
+        <v>1294</v>
       </c>
       <c r="AE9" t="s">
-        <v>1351</v>
+        <v>512</v>
       </c>
       <c r="AF9" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="AG9" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="AH9" t="s">
-        <v>1518</v>
+        <v>402</v>
       </c>
       <c r="AI9" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="AJ9" t="s">
-        <v>1624</v>
+        <v>437</v>
       </c>
       <c r="AK9" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M10" t="s">
-        <v>432</v>
+        <v>180</v>
       </c>
       <c r="N10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="O10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="P10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Q10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="S10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="T10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="U10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="V10" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="W10" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="X10" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="Y10" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="Z10" t="s">
-        <v>53</v>
+        <v>1084</v>
       </c>
       <c r="AA10" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="AB10" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="AC10" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="AD10" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="AE10" t="s">
-        <v>1352</v>
+        <v>621</v>
       </c>
       <c r="AF10" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="AG10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="AH10" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="AI10" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="AJ10" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="AK10" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:37">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>267</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>390</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>430</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>472</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>514</v>
       </c>
       <c r="P11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="Q11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R11" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="S11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="T11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="U11" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="V11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="W11" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="X11" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="Y11" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="Z11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AA11" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="AB11" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="AC11" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="AD11" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="AE11" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="AF11" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="AG11" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="AH11" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="AI11" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="AJ11" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="AK11" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:37">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>431</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>473</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>515</v>
       </c>
       <c r="P12" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="Q12" t="s">
-        <v>615</v>
+        <v>559</v>
       </c>
       <c r="R12" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="S12" t="s">
-        <v>715</v>
+        <v>107</v>
       </c>
       <c r="T12" t="s">
-        <v>765</v>
+        <v>308</v>
       </c>
       <c r="U12" t="s">
-        <v>816</v>
+        <v>308</v>
       </c>
       <c r="V12" t="s">
-        <v>866</v>
+        <v>224</v>
       </c>
       <c r="W12" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="X12" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="Y12" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="Z12" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="AA12" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="AB12" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="AC12" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="AD12" t="s">
-        <v>1299</v>
+        <v>975</v>
       </c>
       <c r="AE12" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="AF12" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="AG12" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="AH12" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="AI12" t="s">
-        <v>420</v>
+        <v>1571</v>
       </c>
       <c r="AJ12" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="AK12" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>392</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>432</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>474</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>516</v>
       </c>
       <c r="P13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Q13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="R13" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="S13" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="T13" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="U13" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="V13" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="W13" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="X13" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="Y13" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="Z13" t="s">
-        <v>1089</v>
+        <v>53</v>
       </c>
       <c r="AA13" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="AB13" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="AC13" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="AD13" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="AE13" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="AF13" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="AG13" t="s">
-        <v>1409</v>
+        <v>1464</v>
       </c>
       <c r="AH13" t="s">
-        <v>1409</v>
+        <v>1519</v>
       </c>
       <c r="AI13" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="AJ13" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="AK13" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:37">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>269</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>310</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>351</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>393</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>433</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>475</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>517</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="Q14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="R14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="S14" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="T14" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="U14" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="V14" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="W14" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="X14" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="Y14" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="Z14" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="AA14" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="AB14" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="AC14" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="AD14" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="AE14" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="AF14" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="AG14" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="AH14" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="AI14" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="AJ14" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="AK14" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:37">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>352</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>394</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>434</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>476</v>
+        <v>34</v>
       </c>
       <c r="O15" t="s">
-        <v>518</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="Q15" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R15" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="S15" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="T15" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="U15" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="V15" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="W15" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="X15" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="Y15" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="Z15" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="AA15" t="s">
-        <v>347</v>
+        <v>1144</v>
       </c>
       <c r="AB15" t="s">
-        <v>437</v>
+        <v>1198</v>
       </c>
       <c r="AC15" t="s">
-        <v>1118</v>
+        <v>1246</v>
       </c>
       <c r="AD15" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="AE15" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="AF15" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="AG15" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="AH15" t="s">
-        <v>571</v>
+        <v>1521</v>
       </c>
       <c r="AI15" t="s">
-        <v>1375</v>
+        <v>420</v>
       </c>
       <c r="AJ15" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="AK15" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:37">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>271</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
-        <v>353</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
-        <v>395</v>
+        <v>34</v>
       </c>
       <c r="M16" t="s">
-        <v>435</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>477</v>
+        <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>519</v>
+        <v>34</v>
       </c>
       <c r="P16" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Q16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="R16" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="S16" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="T16" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="U16" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="V16" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="W16" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="X16" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="Y16" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="Z16" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="AA16" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AB16" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="AC16" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="AD16" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="AE16" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="AF16" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="AG16" t="s">
-        <v>1469</v>
+        <v>1409</v>
       </c>
       <c r="AH16" t="s">
-        <v>1523</v>
+        <v>1409</v>
       </c>
       <c r="AI16" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="AJ16" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="AK16" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:37">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N17" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O17" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P17" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="R17" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="S17" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="T17" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="U17" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="V17" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="W17" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="X17" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="Z17" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="AA17" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AB17" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AC17" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="AD17" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="AE17" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="AF17" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AG17" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="AH17" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="AI17" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="AJ17" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="AK17" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:37">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L18" t="s">
-        <v>234</v>
+        <v>394</v>
       </c>
       <c r="M18" t="s">
+        <v>434</v>
+      </c>
+      <c r="N18" t="s">
+        <v>476</v>
+      </c>
+      <c r="O18" t="s">
+        <v>518</v>
+      </c>
+      <c r="P18" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>618</v>
+      </c>
+      <c r="R18" t="s">
+        <v>668</v>
+      </c>
+      <c r="S18" t="s">
+        <v>718</v>
+      </c>
+      <c r="T18" t="s">
+        <v>768</v>
+      </c>
+      <c r="U18" t="s">
+        <v>819</v>
+      </c>
+      <c r="V18" t="s">
+        <v>869</v>
+      </c>
+      <c r="W18" t="s">
+        <v>924</v>
+      </c>
+      <c r="X18" t="s">
+        <v>981</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB18" t="s">
         <v>437</v>
       </c>
-      <c r="N18" t="s">
-        <v>479</v>
-      </c>
-      <c r="O18" t="s">
-        <v>521</v>
-      </c>
-      <c r="P18" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>621</v>
-      </c>
-      <c r="R18" t="s">
-        <v>671</v>
-      </c>
-      <c r="S18" t="s">
-        <v>721</v>
-      </c>
-      <c r="T18" t="s">
-        <v>771</v>
-      </c>
-      <c r="U18" t="s">
-        <v>822</v>
-      </c>
-      <c r="V18" t="s">
-        <v>872</v>
-      </c>
-      <c r="W18" t="s">
-        <v>927</v>
-      </c>
-      <c r="X18" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>285</v>
-      </c>
       <c r="AC18" t="s">
-        <v>1251</v>
+        <v>1118</v>
       </c>
       <c r="AD18" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="AE18" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="AF18" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="AG18" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="AH18" t="s">
-        <v>1525</v>
+        <v>571</v>
       </c>
       <c r="AI18" t="s">
-        <v>1578</v>
+        <v>1375</v>
       </c>
       <c r="AJ18" t="s">
-        <v>568</v>
+        <v>1630</v>
       </c>
       <c r="AK18" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:37">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M19" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N19" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="O19" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P19" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Q19" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="R19" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="S19" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="T19" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="U19" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="V19" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="W19" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="X19" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="Y19" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="Z19" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="AA19" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AB19" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="AC19" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="AD19" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="AE19" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="AF19" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="AG19" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="AH19" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="AI19" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="AJ19" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="AK19" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:37">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O20" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P20" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="Q20" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="R20" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="S20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="T20" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="U20" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="V20" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="W20" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="X20" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="Y20" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="Z20" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="AA20" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AB20" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="AC20" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="AD20" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="AE20" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="AF20" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="AG20" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="AH20" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="AI20" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="AJ20" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="AK20" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:37">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K21" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L21" t="s">
-        <v>399</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="N21" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="O21" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="P21" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="Q21" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="R21" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="S21" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="T21" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="U21" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="V21" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="W21" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="X21" t="s">
-        <v>986</v>
+        <v>197</v>
       </c>
       <c r="Y21" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="Z21" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="AA21" t="s">
-        <v>1151</v>
+        <v>285</v>
       </c>
       <c r="AB21" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AC21" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="AD21" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="AE21" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="AF21" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="AG21" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="AH21" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="AI21" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="AJ21" t="s">
-        <v>1635</v>
+        <v>568</v>
       </c>
       <c r="AK21" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:37">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L22" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N22" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="O22" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="P22" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="Q22" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="R22" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="S22" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="T22" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="U22" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="V22" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="W22" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="X22" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="Y22" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="Z22" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="AA22" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="AB22" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="AC22" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="AD22" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="AE22" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="AF22" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="AG22" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="AH22" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="AI22" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="AJ22" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="AK22" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:37">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M23" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N23" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="O23" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P23" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q23" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="R23" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="S23" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="T23" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="U23" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="V23" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="W23" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="X23" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="Y23" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="Z23" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="AA23" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="AB23" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="AC23" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="AD23" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="AE23" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="AF23" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="AG23" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="AH23" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="AI23" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="AJ23" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="AK23" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:37">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I24" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J24" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L24" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M24" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N24" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O24" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P24" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="Q24" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="R24" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="S24" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="T24" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="U24" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="V24" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="W24" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="X24" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="Y24" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="Z24" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="AA24" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="AB24" t="s">
-        <v>1207</v>
+        <v>290</v>
       </c>
       <c r="AC24" t="s">
-        <v>1091</v>
+        <v>1254</v>
       </c>
       <c r="AD24" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="AE24" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="AF24" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="AG24" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="AH24" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="AI24" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="AJ24" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="AK24" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:37">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L25" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N25" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="P25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="Q25" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="R25" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="S25" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="T25" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="U25" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="V25" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="W25" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="X25" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="Y25" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="Z25" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="AA25" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="AB25" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="AC25" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="AD25" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="AE25" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="AF25" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="AG25" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="AH25" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="AI25" t="s">
-        <v>1532</v>
+        <v>1582</v>
       </c>
       <c r="AJ25" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="AK25" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:37">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L26" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M26" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N26" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="O26" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P26" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q26" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="R26" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="S26" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="T26" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="U26" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="V26" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="W26" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="X26" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="Y26" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="Z26" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="AA26" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="AB26" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="AC26" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="AD26" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="AE26" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="AF26" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AG26" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="AH26" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="AI26" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="AJ26" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="AK26" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:37">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="H27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I27" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N27" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="O27" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="P27" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q27" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="R27" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="S27" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="T27" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="U27" t="s">
-        <v>158</v>
+        <v>828</v>
       </c>
       <c r="V27" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="W27" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="X27" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="Y27" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="Z27" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AA27" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="AB27" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="AC27" t="s">
-        <v>1259</v>
+        <v>1091</v>
       </c>
       <c r="AD27" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="AE27" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="AF27" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="AG27" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="AH27" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="AI27" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="AJ27" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="AK27" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:37">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I28" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M28" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N28" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="O28" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P28" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="Q28" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="R28" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="S28" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="T28" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="U28" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="V28" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="W28" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="X28" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="Y28" t="s">
-        <v>656</v>
+        <v>1045</v>
       </c>
       <c r="Z28" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="AA28" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="AB28" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="AC28" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="AD28" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="AE28" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="AF28" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="AG28" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="AH28" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="AI28" t="s">
-        <v>1587</v>
+        <v>1532</v>
       </c>
       <c r="AJ28" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="AK28" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:37">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J29" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M29" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N29" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="O29" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="P29" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Q29" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="R29" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="S29" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="T29" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="U29" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="V29" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="W29" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="X29" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="Y29" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="Z29" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AA29" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="AB29" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="AC29" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="AD29" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="AE29" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="AF29" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="AG29" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="AH29" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="AI29" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="AJ29" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="AK29" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:37">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K30" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L30" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M30" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="N30" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O30" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P30" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q30" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="R30" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="S30" t="s">
-        <v>683</v>
+        <v>730</v>
       </c>
       <c r="T30" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="U30" t="s">
-        <v>833</v>
+        <v>158</v>
       </c>
       <c r="V30" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="W30" t="s">
-        <v>780</v>
+        <v>936</v>
       </c>
       <c r="X30" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="Y30" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="Z30" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="AA30" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="AB30" t="s">
-        <v>1118</v>
+        <v>1210</v>
       </c>
       <c r="AC30" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="AD30" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="AE30" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="AF30" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="AG30" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="AH30" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="AI30" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="AJ30" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="AK30" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:37">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I31" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J31" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K31" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L31" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M31" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N31" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="O31" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="P31" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Q31" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="R31" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="S31" t="s">
-        <v>684</v>
+        <v>731</v>
       </c>
       <c r="T31" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="U31" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="V31" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="W31" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="X31" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="Y31" t="s">
-        <v>1050</v>
+        <v>656</v>
       </c>
       <c r="Z31" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="AA31" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="AB31" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="AC31" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="AD31" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="AE31" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="AF31" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="AG31" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="AH31" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="AI31" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="AJ31" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="AK31" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:37">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>34</v>
+        <v>325</v>
       </c>
       <c r="K32" t="s">
-        <v>34</v>
+        <v>366</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>407</v>
       </c>
       <c r="M32" t="s">
-        <v>34</v>
+        <v>448</v>
       </c>
       <c r="N32" t="s">
-        <v>34</v>
+        <v>490</v>
       </c>
       <c r="O32" t="s">
-        <v>34</v>
+        <v>532</v>
       </c>
       <c r="P32" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Q32" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="R32" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="S32" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="T32" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="U32" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="V32" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="W32" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="X32" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="Y32" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="Z32" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="AA32" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="AB32" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AC32" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="AD32" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="AE32" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="AF32" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AG32" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="AH32" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="AI32" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="AJ32" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="AK32" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:37">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="H33" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="L33" t="s">
-        <v>34</v>
+        <v>408</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="N33" t="s">
-        <v>34</v>
+        <v>491</v>
       </c>
       <c r="O33" t="s">
-        <v>34</v>
+        <v>533</v>
       </c>
       <c r="P33" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="Q33" t="s">
-        <v>583</v>
+        <v>633</v>
       </c>
       <c r="R33" t="s">
-        <v>583</v>
+        <v>683</v>
       </c>
       <c r="S33" t="s">
-        <v>734</v>
+        <v>683</v>
       </c>
       <c r="T33" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="U33" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="V33" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="W33" t="s">
-        <v>941</v>
+        <v>780</v>
       </c>
       <c r="X33" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="Y33" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="Z33" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="AA33" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AB33" t="s">
-        <v>1215</v>
+        <v>1118</v>
       </c>
       <c r="AC33" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="AD33" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="AE33" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="AF33" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="AG33" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="AH33" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="AI33" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="AJ33" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="AK33" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:37">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="H34" t="s">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="I34" t="s">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>327</v>
       </c>
       <c r="K34" t="s">
-        <v>34</v>
+        <v>368</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>409</v>
       </c>
       <c r="M34" t="s">
-        <v>34</v>
+        <v>450</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>492</v>
       </c>
       <c r="O34" t="s">
-        <v>34</v>
+        <v>534</v>
       </c>
       <c r="P34" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q34" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="R34" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="S34" t="s">
-        <v>735</v>
+        <v>684</v>
       </c>
       <c r="T34" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="U34" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="V34" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="W34" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="X34" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="Y34" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="Z34" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="AA34" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="AB34" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="AC34" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="AD34" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="AE34" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="AF34" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="AG34" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="AH34" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="AI34" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="AJ34" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="AK34" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:37">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="I35" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>34</v>
+        <v>325</v>
       </c>
       <c r="K35" t="s">
-        <v>34</v>
+        <v>366</v>
       </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>407</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
+        <v>448</v>
       </c>
       <c r="N35" t="s">
-        <v>34</v>
+        <v>490</v>
       </c>
       <c r="O35" t="s">
-        <v>34</v>
+        <v>532</v>
       </c>
       <c r="P35" t="s">
-        <v>34</v>
+        <v>579</v>
       </c>
       <c r="Q35" t="s">
-        <v>34</v>
+        <v>632</v>
       </c>
       <c r="R35" t="s">
-        <v>34</v>
+        <v>682</v>
       </c>
       <c r="S35" t="s">
-        <v>34</v>
+        <v>732</v>
       </c>
       <c r="T35" t="s">
-        <v>34</v>
+        <v>782</v>
       </c>
       <c r="U35" t="s">
-        <v>34</v>
+        <v>832</v>
       </c>
       <c r="V35" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="W35" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="X35" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="Y35" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="Z35" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="AA35" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="AB35" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="AC35" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="AD35" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="AE35" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="AF35" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="AG35" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="AH35" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="AI35" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="AJ35" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="AK35" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:37">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="H36" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="I36" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="L36" t="s">
-        <v>34</v>
+        <v>408</v>
       </c>
       <c r="M36" t="s">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="N36" t="s">
-        <v>34</v>
+        <v>491</v>
       </c>
       <c r="O36" t="s">
-        <v>34</v>
+        <v>533</v>
       </c>
       <c r="P36" t="s">
-        <v>34</v>
+        <v>580</v>
       </c>
       <c r="Q36" t="s">
-        <v>34</v>
+        <v>633</v>
       </c>
       <c r="R36" t="s">
-        <v>34</v>
+        <v>683</v>
       </c>
       <c r="S36" t="s">
-        <v>34</v>
+        <v>683</v>
       </c>
       <c r="T36" t="s">
-        <v>34</v>
+        <v>783</v>
       </c>
       <c r="U36" t="s">
-        <v>34</v>
+        <v>833</v>
       </c>
       <c r="V36" t="s">
-        <v>647</v>
+        <v>884</v>
       </c>
       <c r="W36" t="s">
-        <v>944</v>
+        <v>780</v>
       </c>
       <c r="X36" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="Y36" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="Z36" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="AA36" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="AB36" t="s">
-        <v>1218</v>
+        <v>1118</v>
       </c>
       <c r="AC36" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="AD36" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="AE36" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="AF36" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="AG36" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="AH36" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="AI36" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="AJ36" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="AK36" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:37">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="H37" t="s">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="I37" t="s">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>368</v>
       </c>
       <c r="L37" t="s">
-        <v>34</v>
+        <v>409</v>
       </c>
       <c r="M37" t="s">
-        <v>34</v>
+        <v>450</v>
       </c>
       <c r="N37" t="s">
-        <v>34</v>
+        <v>492</v>
       </c>
       <c r="O37" t="s">
-        <v>34</v>
+        <v>534</v>
       </c>
       <c r="P37" t="s">
-        <v>34</v>
+        <v>581</v>
       </c>
       <c r="Q37" t="s">
-        <v>34</v>
+        <v>634</v>
       </c>
       <c r="R37" t="s">
-        <v>34</v>
+        <v>684</v>
       </c>
       <c r="S37" t="s">
-        <v>34</v>
+        <v>684</v>
       </c>
       <c r="T37" t="s">
-        <v>34</v>
+        <v>784</v>
       </c>
       <c r="U37" t="s">
-        <v>34</v>
+        <v>834</v>
       </c>
       <c r="V37" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="W37" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="X37" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="Y37" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="Z37" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="AA37" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="AB37" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="AC37" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="AD37" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="AE37" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="AF37" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="AG37" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="AH37" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="AI37" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="AJ37" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="AK37" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:37">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>248</v>
+        <v>34</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>328</v>
+        <v>34</v>
       </c>
       <c r="K38" t="s">
-        <v>369</v>
+        <v>34</v>
       </c>
       <c r="L38" t="s">
-        <v>410</v>
+        <v>34</v>
       </c>
       <c r="M38" t="s">
-        <v>451</v>
+        <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>493</v>
+        <v>34</v>
       </c>
       <c r="O38" t="s">
-        <v>535</v>
+        <v>34</v>
       </c>
       <c r="P38" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="Q38" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="R38" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="S38" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="T38" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="U38" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="V38" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="W38" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="X38" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="Y38" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="Z38" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="AA38" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="AB38" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="AC38" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="AD38" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="AE38" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="AF38" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="AG38" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="AH38" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="AI38" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="AJ38" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="AK38" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:37">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="H39" t="s">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>288</v>
+        <v>34</v>
       </c>
       <c r="J39" t="s">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s">
-        <v>370</v>
+        <v>34</v>
       </c>
       <c r="L39" t="s">
-        <v>411</v>
+        <v>34</v>
       </c>
       <c r="M39" t="s">
-        <v>452</v>
+        <v>34</v>
       </c>
       <c r="N39" t="s">
-        <v>494</v>
+        <v>34</v>
       </c>
       <c r="O39" t="s">
-        <v>536</v>
+        <v>34</v>
       </c>
       <c r="P39" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="Q39" t="s">
-        <v>638</v>
+        <v>583</v>
       </c>
       <c r="R39" t="s">
-        <v>688</v>
+        <v>583</v>
       </c>
       <c r="S39" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="T39" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="U39" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="V39" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="W39" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="X39" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="Y39" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="Z39" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="AA39" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="AB39" t="s">
-        <v>1086</v>
+        <v>1215</v>
       </c>
       <c r="AC39" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="AD39" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="AE39" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="AF39" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="AG39" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="AH39" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="AI39" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="AJ39" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="AK39" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:37">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="I40" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>330</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s">
-        <v>371</v>
+        <v>34</v>
       </c>
       <c r="L40" t="s">
-        <v>412</v>
+        <v>34</v>
       </c>
       <c r="M40" t="s">
-        <v>453</v>
+        <v>34</v>
       </c>
       <c r="N40" t="s">
-        <v>495</v>
+        <v>34</v>
       </c>
       <c r="O40" t="s">
-        <v>537</v>
+        <v>34</v>
       </c>
       <c r="P40" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="Q40" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="R40" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="S40" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="T40" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="U40" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="V40" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="W40" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="X40" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="Y40" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="Z40" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="AA40" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="AB40" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="AC40" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="AD40" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="AE40" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="AF40" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="AG40" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="AH40" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="AI40" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="AJ40" t="s">
-        <v>153</v>
+        <v>1648</v>
       </c>
       <c r="AK40" t="s">
-        <v>229</v>
+        <v>1705</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:37">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="L41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="O41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="P41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="Q41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="R41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="T41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="U41" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="V41" t="s">
-        <v>55</v>
+        <v>889</v>
       </c>
       <c r="W41" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="X41" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="Z41" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="AA41" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="AB41" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="AC41" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="AD41" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="AE41" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="AF41" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="AG41" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="AH41" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="AI41" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="AJ41" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="AK41" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:37">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c r="J42" t="s">
-        <v>331</v>
+        <v>34</v>
       </c>
       <c r="K42" t="s">
-        <v>372</v>
+        <v>34</v>
       </c>
       <c r="L42" t="s">
-        <v>413</v>
+        <v>34</v>
       </c>
       <c r="M42" t="s">
-        <v>454</v>
+        <v>34</v>
       </c>
       <c r="N42" t="s">
-        <v>496</v>
+        <v>34</v>
       </c>
       <c r="O42" t="s">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="P42" t="s">
-        <v>588</v>
+        <v>34</v>
       </c>
       <c r="Q42" t="s">
-        <v>588</v>
+        <v>34</v>
       </c>
       <c r="R42" t="s">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="S42" t="s">
-        <v>739</v>
+        <v>34</v>
       </c>
       <c r="T42" t="s">
-        <v>372</v>
+        <v>34</v>
       </c>
       <c r="U42" t="s">
-        <v>841</v>
+        <v>34</v>
       </c>
       <c r="V42" t="s">
-        <v>894</v>
+        <v>647</v>
       </c>
       <c r="W42" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="X42" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="Y42" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="Z42" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="AA42" t="s">
-        <v>402</v>
+        <v>1166</v>
       </c>
       <c r="AB42" t="s">
-        <v>915</v>
+        <v>1218</v>
       </c>
       <c r="AC42" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="AD42" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="AE42" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="AF42" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="AG42" t="s">
-        <v>1302</v>
+        <v>1489</v>
       </c>
       <c r="AH42" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="AI42" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="AJ42" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="AK42" t="s">
-        <v>1492</v>
+        <v>1707</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:37">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="I43" t="s">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="J43" t="s">
-        <v>332</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s">
-        <v>373</v>
+        <v>34</v>
       </c>
       <c r="L43" t="s">
-        <v>414</v>
+        <v>34</v>
       </c>
       <c r="M43" t="s">
-        <v>455</v>
+        <v>34</v>
       </c>
       <c r="N43" t="s">
-        <v>497</v>
+        <v>34</v>
       </c>
       <c r="O43" t="s">
-        <v>538</v>
+        <v>34</v>
       </c>
       <c r="P43" t="s">
-        <v>589</v>
+        <v>34</v>
       </c>
       <c r="Q43" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="R43" t="s">
-        <v>690</v>
+        <v>34</v>
       </c>
       <c r="S43" t="s">
-        <v>330</v>
+        <v>34</v>
       </c>
       <c r="T43" t="s">
-        <v>371</v>
+        <v>34</v>
       </c>
       <c r="U43" t="s">
-        <v>842</v>
+        <v>34</v>
       </c>
       <c r="V43" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="W43" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="X43" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="Y43" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="Z43" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="AA43" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="AB43" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="AC43" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="AD43" t="s">
-        <v>689</v>
+        <v>1324</v>
       </c>
       <c r="AE43" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="AF43" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="AG43" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="AH43" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="AI43" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="AJ43" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="AK43" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:37">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I44" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J44" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K44" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="N44" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="O44" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="P44" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="Q44" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="R44" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="S44" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="T44" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="U44" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="V44" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="W44" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="X44" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="Y44" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="Z44" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="AA44" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="AB44" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="AC44" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="AD44" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="AE44" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="AF44" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="AG44" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="AH44" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="AI44" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="AJ44" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="AK44" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:37">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G45" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H45" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I45" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K45" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L45" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M45" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N45" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="O45" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P45" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Q45" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="R45" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="S45" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="T45" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="U45" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="V45" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="W45" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="X45" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="Y45" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="Z45" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="AA45" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="AB45" t="s">
-        <v>1225</v>
+        <v>1086</v>
       </c>
       <c r="AC45" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="AD45" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="AE45" t="s">
-        <v>1064</v>
+        <v>1381</v>
       </c>
       <c r="AF45" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="AG45" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="AH45" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="AI45" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="AJ45" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="AK45" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:37">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="H46" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I46" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J46" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K46" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M46" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="N46" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="O46" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="P46" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="Q46" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="R46" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="S46" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="T46" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="U46" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="V46" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="W46" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="X46" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="Y46" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="Z46" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="AA46" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="AB46" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="AC46" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="AD46" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="AE46" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="AF46" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="AG46" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="AH46" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="AI46" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="AJ46" t="s">
-        <v>1659</v>
+        <v>153</v>
       </c>
       <c r="AK46" t="s">
-        <v>1715</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:37">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="I47" t="s">
-        <v>295</v>
+        <v>55</v>
       </c>
       <c r="J47" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s">
-        <v>377</v>
+        <v>55</v>
       </c>
       <c r="L47" t="s">
-        <v>418</v>
+        <v>55</v>
       </c>
       <c r="M47" t="s">
-        <v>459</v>
+        <v>55</v>
       </c>
       <c r="N47" t="s">
-        <v>501</v>
+        <v>55</v>
       </c>
       <c r="O47" t="s">
-        <v>542</v>
+        <v>55</v>
       </c>
       <c r="P47" t="s">
-        <v>593</v>
+        <v>55</v>
       </c>
       <c r="Q47" t="s">
-        <v>643</v>
+        <v>55</v>
       </c>
       <c r="R47" t="s">
-        <v>694</v>
+        <v>55</v>
       </c>
       <c r="S47" t="s">
-        <v>743</v>
+        <v>55</v>
       </c>
       <c r="T47" t="s">
-        <v>794</v>
+        <v>55</v>
       </c>
       <c r="U47" t="s">
-        <v>846</v>
+        <v>55</v>
       </c>
       <c r="V47" t="s">
-        <v>899</v>
+        <v>55</v>
       </c>
       <c r="W47" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="X47" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="Y47" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="Z47" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="AA47" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="AB47" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="AC47" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="AD47" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="AE47" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="AF47" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="AG47" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="AH47" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="AI47" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="AJ47" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="AK47" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:37">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G48" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="H48" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I48" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J48" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K48" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M48" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="N48" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="O48" t="s">
-        <v>543</v>
+        <v>311</v>
       </c>
       <c r="P48" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="Q48" t="s">
-        <v>644</v>
+        <v>588</v>
       </c>
       <c r="R48" t="s">
-        <v>695</v>
+        <v>311</v>
       </c>
       <c r="S48" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="T48" t="s">
-        <v>795</v>
+        <v>372</v>
       </c>
       <c r="U48" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="V48" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="W48" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="X48" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="Y48" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="Z48" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="AA48" t="s">
-        <v>1177</v>
+        <v>402</v>
       </c>
       <c r="AB48" t="s">
-        <v>1228</v>
+        <v>915</v>
       </c>
       <c r="AC48" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="AD48" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="AE48" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="AF48" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="AG48" t="s">
-        <v>1500</v>
+        <v>1302</v>
       </c>
       <c r="AH48" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="AI48" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="AJ48" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="AK48" t="s">
-        <v>1717</v>
+        <v>1492</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:37">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F49" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G49" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H49" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="I49" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J49" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K49" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M49" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="N49" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="O49" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P49" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="Q49" t="s">
-        <v>645</v>
+        <v>133</v>
       </c>
       <c r="R49" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="S49" t="s">
-        <v>745</v>
+        <v>330</v>
       </c>
       <c r="T49" t="s">
-        <v>796</v>
+        <v>371</v>
       </c>
       <c r="U49" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="V49" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="W49" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="X49" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="Y49" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="Z49" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="AA49" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="AB49" t="s">
-        <v>217</v>
+        <v>1223</v>
       </c>
       <c r="AC49" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="AD49" t="s">
-        <v>1335</v>
+        <v>689</v>
       </c>
       <c r="AE49" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="AF49" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="AG49" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="AH49" t="s">
-        <v>1390</v>
+        <v>1550</v>
       </c>
       <c r="AI49" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="AJ49" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="AK49" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:37">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="I50" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="J50" t="s">
-        <v>55</v>
+        <v>333</v>
       </c>
       <c r="K50" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="L50" t="s">
-        <v>55</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s">
-        <v>55</v>
+        <v>456</v>
       </c>
       <c r="N50" t="s">
-        <v>55</v>
+        <v>498</v>
       </c>
       <c r="O50" t="s">
-        <v>55</v>
+        <v>539</v>
       </c>
       <c r="P50" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="Q50" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="R50" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="S50" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="T50" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="U50" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="V50" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="W50" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="X50" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="Y50" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="Z50" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="AA50" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="AB50" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="AC50" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="AD50" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="AE50" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="AF50" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="AG50" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="AH50" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="AI50" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="AJ50" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="AK50" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:37">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="H51" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="I51" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="J51" t="s">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="K51" t="s">
-        <v>32</v>
+        <v>375</v>
       </c>
       <c r="L51" t="s">
-        <v>32</v>
+        <v>416</v>
       </c>
       <c r="M51" t="s">
-        <v>32</v>
+        <v>457</v>
       </c>
       <c r="N51" t="s">
-        <v>32</v>
+        <v>499</v>
       </c>
       <c r="O51" t="s">
-        <v>32</v>
+        <v>540</v>
       </c>
       <c r="P51" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="Q51" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="R51" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="S51" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="T51" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="U51" t="s">
-        <v>597</v>
+        <v>844</v>
       </c>
       <c r="V51" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="W51" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="X51" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="Y51" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="Z51" t="s">
-        <v>243</v>
+        <v>1121</v>
       </c>
       <c r="AA51" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="AB51" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="AC51" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="AD51" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="AE51" t="s">
-        <v>1392</v>
+        <v>1064</v>
       </c>
       <c r="AF51" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="AG51" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="AH51" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="AI51" t="s">
-        <v>836</v>
+        <v>1604</v>
       </c>
       <c r="AJ51" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="AK51" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:37">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="J52" t="s">
-        <v>32</v>
+        <v>335</v>
       </c>
       <c r="K52" t="s">
-        <v>32</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s">
-        <v>32</v>
+        <v>417</v>
       </c>
       <c r="M52" t="s">
-        <v>32</v>
+        <v>458</v>
       </c>
       <c r="N52" t="s">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="O52" t="s">
-        <v>32</v>
+        <v>541</v>
       </c>
       <c r="P52" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="Q52" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="R52" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="S52" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="T52" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="U52" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="V52" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="W52" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="X52" t="s">
-        <v>748</v>
+        <v>1011</v>
       </c>
       <c r="Y52" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="Z52" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="AA52" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="AB52" t="s">
-        <v>748</v>
+        <v>1226</v>
       </c>
       <c r="AC52" t="s">
-        <v>1127</v>
+        <v>1278</v>
       </c>
       <c r="AD52" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="AE52" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="AF52" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="AG52" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="AH52" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="AI52" t="s">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="AJ52" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="AK52" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:37">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="G53" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="I53" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="J53" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="K53" t="s">
-        <v>55</v>
+        <v>377</v>
       </c>
       <c r="L53" t="s">
-        <v>55</v>
+        <v>418</v>
       </c>
       <c r="M53" t="s">
-        <v>55</v>
+        <v>459</v>
       </c>
       <c r="N53" t="s">
-        <v>55</v>
+        <v>501</v>
       </c>
       <c r="O53" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P53" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="Q53" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="R53" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="S53" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="T53" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="U53" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="V53" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="W53" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="X53" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="Y53" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="Z53" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="AA53" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="AB53" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="AC53" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="AD53" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="AE53" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="AF53" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="AG53" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="AH53" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="AI53" t="s">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="AJ53" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="AK53" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:37">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="I54" t="s">
-        <v>32</v>
+        <v>296</v>
       </c>
       <c r="J54" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="K54" t="s">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s">
-        <v>32</v>
+        <v>419</v>
       </c>
       <c r="M54" t="s">
-        <v>32</v>
+        <v>460</v>
       </c>
       <c r="N54" t="s">
-        <v>32</v>
+        <v>502</v>
       </c>
       <c r="O54" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P54" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="Q54" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="R54" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="S54" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="T54" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="U54" t="s">
-        <v>169</v>
+        <v>847</v>
       </c>
       <c r="V54" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="W54" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="X54" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="Y54" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="Z54" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="AA54" t="s">
-        <v>1073</v>
+        <v>1177</v>
       </c>
       <c r="AB54" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="AC54" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="AD54" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="AE54" t="s">
-        <v>1024</v>
+        <v>1389</v>
       </c>
       <c r="AF54" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="AG54" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="AH54" t="s">
-        <v>1240</v>
+        <v>1555</v>
       </c>
       <c r="AI54" t="s">
-        <v>1612</v>
+        <v>1607</v>
       </c>
       <c r="AJ54" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="AK54" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:37">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="H55" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
+        <v>297</v>
       </c>
       <c r="J55" t="s">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="K55" t="s">
-        <v>32</v>
+        <v>379</v>
       </c>
       <c r="L55" t="s">
-        <v>32</v>
+        <v>420</v>
       </c>
       <c r="M55" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="N55" t="s">
-        <v>32</v>
+        <v>503</v>
       </c>
       <c r="O55" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P55" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="Q55" t="s">
-        <v>601</v>
+        <v>645</v>
       </c>
       <c r="R55" t="s">
-        <v>601</v>
+        <v>696</v>
       </c>
       <c r="S55" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="T55" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="U55" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="V55" t="s">
-        <v>852</v>
+        <v>901</v>
       </c>
       <c r="W55" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="X55" t="s">
-        <v>601</v>
+        <v>1014</v>
       </c>
       <c r="Y55" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="Z55" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="AA55" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="AB55" t="s">
-        <v>1233</v>
+        <v>217</v>
       </c>
       <c r="AC55" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="AD55" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="AE55" t="s">
-        <v>1341</v>
+        <v>1390</v>
       </c>
       <c r="AF55" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="AG55" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="AH55" t="s">
-        <v>1560</v>
+        <v>1390</v>
       </c>
       <c r="AI55" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="AJ55" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="AK55" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:37">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>298</v>
+        <v>55</v>
       </c>
       <c r="J56" t="s">
-        <v>339</v>
+        <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>421</v>
+        <v>55</v>
       </c>
       <c r="M56" t="s">
-        <v>462</v>
+        <v>55</v>
       </c>
       <c r="N56" t="s">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="O56" t="s">
-        <v>548</v>
+        <v>55</v>
       </c>
       <c r="P56" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="Q56" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="R56" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="S56" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="T56" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="U56" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="V56" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="W56" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="X56" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="Y56" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="Z56" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="AA56" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="AB56" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="AC56" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="AD56" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="AE56" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="AF56" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="AG56" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="AH56" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="AI56" t="s">
-        <v>1614</v>
+        <v>1609</v>
       </c>
       <c r="AJ56" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="AK56" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:37">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="H57" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="J57" t="s">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="K57" t="s">
-        <v>381</v>
+        <v>32</v>
       </c>
       <c r="L57" t="s">
-        <v>422</v>
+        <v>32</v>
       </c>
       <c r="M57" t="s">
-        <v>463</v>
+        <v>32</v>
       </c>
       <c r="N57" t="s">
-        <v>505</v>
+        <v>32</v>
       </c>
       <c r="O57" t="s">
-        <v>549</v>
+        <v>32</v>
       </c>
       <c r="P57" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="Q57" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="R57" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="S57" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="T57" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="U57" t="s">
-        <v>854</v>
+        <v>597</v>
       </c>
       <c r="V57" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="W57" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="X57" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="Y57" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="Z57" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="AA57" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="AB57" t="s">
-        <v>314</v>
+        <v>1230</v>
       </c>
       <c r="AC57" t="s">
-        <v>1106</v>
+        <v>1283</v>
       </c>
       <c r="AD57" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="AE57" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="AF57" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="AG57" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="AH57" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="AI57" t="s">
-        <v>1615</v>
+        <v>836</v>
       </c>
       <c r="AJ57" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="AK57" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:37">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
       </c>
       <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+      <c r="J58" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>648</v>
+      </c>
+      <c r="R58" t="s">
+        <v>699</v>
+      </c>
+      <c r="S58" t="s">
+        <v>748</v>
+      </c>
+      <c r="T58" t="s">
+        <v>799</v>
+      </c>
+      <c r="U58" t="s">
+        <v>850</v>
+      </c>
+      <c r="V58" t="s">
+        <v>904</v>
+      </c>
+      <c r="W58" t="s">
+        <v>960</v>
+      </c>
+      <c r="X58" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>748</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>1448</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>1610</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
+      </c>
+      <c r="K59" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" t="s">
+        <v>55</v>
+      </c>
+      <c r="M59" t="s">
+        <v>55</v>
+      </c>
+      <c r="N59" t="s">
+        <v>55</v>
+      </c>
+      <c r="O59" t="s">
+        <v>545</v>
+      </c>
+      <c r="P59" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>649</v>
+      </c>
+      <c r="R59" t="s">
+        <v>700</v>
+      </c>
+      <c r="S59" t="s">
+        <v>749</v>
+      </c>
+      <c r="T59" t="s">
+        <v>800</v>
+      </c>
+      <c r="U59" t="s">
+        <v>851</v>
+      </c>
+      <c r="V59" t="s">
+        <v>905</v>
+      </c>
+      <c r="W59" t="s">
+        <v>961</v>
+      </c>
+      <c r="X59" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60" t="s">
+        <v>32</v>
+      </c>
+      <c r="N60" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" t="s">
+        <v>546</v>
+      </c>
+      <c r="P60" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>650</v>
+      </c>
+      <c r="R60" t="s">
+        <v>701</v>
+      </c>
+      <c r="S60" t="s">
+        <v>750</v>
+      </c>
+      <c r="T60" t="s">
+        <v>801</v>
+      </c>
+      <c r="U60" t="s">
+        <v>169</v>
+      </c>
+      <c r="V60" t="s">
+        <v>906</v>
+      </c>
+      <c r="W60" t="s">
+        <v>962</v>
+      </c>
+      <c r="X60" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>1450</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>1240</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" t="s">
+        <v>547</v>
+      </c>
+      <c r="P61" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>601</v>
+      </c>
+      <c r="R61" t="s">
+        <v>601</v>
+      </c>
+      <c r="S61" t="s">
+        <v>751</v>
+      </c>
+      <c r="T61" t="s">
+        <v>802</v>
+      </c>
+      <c r="U61" t="s">
+        <v>852</v>
+      </c>
+      <c r="V61" t="s">
+        <v>852</v>
+      </c>
+      <c r="W61" t="s">
+        <v>963</v>
+      </c>
+      <c r="X61" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>1233</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" t="s">
+        <v>181</v>
+      </c>
+      <c r="G62" t="s">
+        <v>219</v>
+      </c>
+      <c r="H62" t="s">
+        <v>258</v>
+      </c>
+      <c r="I62" t="s">
+        <v>298</v>
+      </c>
+      <c r="J62" t="s">
+        <v>339</v>
+      </c>
+      <c r="K62" t="s">
+        <v>380</v>
+      </c>
+      <c r="L62" t="s">
+        <v>421</v>
+      </c>
+      <c r="M62" t="s">
+        <v>462</v>
+      </c>
+      <c r="N62" t="s">
+        <v>504</v>
+      </c>
+      <c r="O62" t="s">
+        <v>548</v>
+      </c>
+      <c r="P62" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>651</v>
+      </c>
+      <c r="R62" t="s">
+        <v>702</v>
+      </c>
+      <c r="S62" t="s">
+        <v>752</v>
+      </c>
+      <c r="T62" t="s">
+        <v>803</v>
+      </c>
+      <c r="U62" t="s">
+        <v>853</v>
+      </c>
+      <c r="V62" t="s">
+        <v>907</v>
+      </c>
+      <c r="W62" t="s">
+        <v>964</v>
+      </c>
+      <c r="X62" t="s">
+        <v>1019</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>1234</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>1452</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>1614</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" t="s">
+        <v>182</v>
+      </c>
+      <c r="G63" t="s">
+        <v>220</v>
+      </c>
+      <c r="H63" t="s">
+        <v>259</v>
+      </c>
+      <c r="I63" t="s">
+        <v>299</v>
+      </c>
+      <c r="J63" t="s">
+        <v>340</v>
+      </c>
+      <c r="K63" t="s">
+        <v>381</v>
+      </c>
+      <c r="L63" t="s">
+        <v>422</v>
+      </c>
+      <c r="M63" t="s">
+        <v>463</v>
+      </c>
+      <c r="N63" t="s">
+        <v>505</v>
+      </c>
+      <c r="O63" t="s">
+        <v>549</v>
+      </c>
+      <c r="P63" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>652</v>
+      </c>
+      <c r="R63" t="s">
+        <v>703</v>
+      </c>
+      <c r="S63" t="s">
+        <v>753</v>
+      </c>
+      <c r="T63" t="s">
+        <v>804</v>
+      </c>
+      <c r="U63" t="s">
+        <v>854</v>
+      </c>
+      <c r="V63" t="s">
+        <v>908</v>
+      </c>
+      <c r="W63" t="s">
+        <v>965</v>
+      </c>
+      <c r="X63" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>1562</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
         <v>65</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D64" t="s">
         <v>104</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E64" t="s">
         <v>143</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F64" t="s">
         <v>183</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G64" t="s">
         <v>221</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H64" t="s">
         <v>260</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I64" t="s">
         <v>300</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J64" t="s">
         <v>341</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K64" t="s">
         <v>382</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L64" t="s">
         <v>423</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M64" t="s">
         <v>464</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N64" t="s">
         <v>506</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O64" t="s">
         <v>550</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P64" t="s">
         <v>604</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="Q64" t="s">
         <v>653</v>
       </c>
-      <c r="R58" t="s">
+      <c r="R64" t="s">
         <v>704</v>
       </c>
-      <c r="S58" t="s">
+      <c r="S64" t="s">
         <v>754</v>
       </c>
-      <c r="T58" t="s">
+      <c r="T64" t="s">
         <v>805</v>
       </c>
-      <c r="U58" t="s">
+      <c r="U64" t="s">
         <v>855</v>
       </c>
-      <c r="V58" t="s">
+      <c r="V64" t="s">
         <v>909</v>
       </c>
-      <c r="W58" t="s">
+      <c r="W64" t="s">
         <v>966</v>
       </c>
-      <c r="X58" t="s">
+      <c r="X64" t="s">
         <v>1021</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Y64" t="s">
         <v>1077</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Z64" t="s">
         <v>1132</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AA64" t="s">
         <v>1186</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AB64" t="s">
         <v>1235</v>
       </c>
-      <c r="AC58" t="s">
+      <c r="AC64" t="s">
         <v>1288</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AD64" t="s">
         <v>1344</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AE64" t="s">
         <v>1397</v>
       </c>
-      <c r="AF58" t="s">
+      <c r="AF64" t="s">
         <v>1454</v>
       </c>
-      <c r="AG58" t="s">
+      <c r="AG64" t="s">
         <v>1510</v>
       </c>
-      <c r="AH58" t="s">
+      <c r="AH64" t="s">
         <v>1563</v>
       </c>
-      <c r="AI58" t="s">
+      <c r="AI64" t="s">
         <v>1616</v>
       </c>
-      <c r="AJ58" t="s">
+      <c r="AJ64" t="s">
         <v>1671</v>
       </c>
-      <c r="AK58" t="s">
+      <c r="AK64" t="s">
         <v>1727</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/weo_data_dirty_strings.xlsx
+++ b/weo_data_dirty_strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/m_wiemers_lse_ac_uk/Documents/DSL/Trainings/Stata/Stata_practicals/data_cleaning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_1147C4778C54FEED7BABC744E3012D16E106D4A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7825B8B8-47D2-49ED-AF57-0FC67FA93774}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B127D200-206D-432F-B624-4DBA91057EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1050" windowWidth="22230" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1734">
   <si>
     <t>Country</t>
   </si>
@@ -5204,16 +5204,39 @@
   </si>
   <si>
     <t>46.464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5236,8 +5259,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5554,8 +5578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:AK34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5674,8 +5698,8 @@
       </c>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>1728</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -6352,8 +6376,8 @@
       </c>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" t="s">
-        <v>2</v>
+      <c r="A8" s="1" t="s">
+        <v>1729</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -7030,8 +7054,8 @@
       </c>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" t="s">
-        <v>4</v>
+      <c r="A14" s="1" t="s">
+        <v>1730</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -7482,8 +7506,8 @@
       </c>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" t="s">
-        <v>5</v>
+      <c r="A18" s="1" t="s">
+        <v>1731</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -8160,8 +8184,8 @@
       </c>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" t="s">
-        <v>7</v>
+      <c r="A24" s="1" t="s">
+        <v>1732</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -8951,8 +8975,8 @@
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" t="s">
-        <v>9</v>
+      <c r="A31" s="1" t="s">
+        <v>1733</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
